--- a/04_Serial_to_Ethernet_Module/WIZ750SR-T1L/WIZ750SR-T1L_V100/Partlist/WIZ750SR-T1L_R10.xlsx
+++ b/04_Serial_to_Ethernet_Module/WIZ750SR-T1L/WIZ750SR-T1L_V100/Partlist/WIZ750SR-T1L_R10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaden\Documents\GitHub\Hardware-Files-of-WIZnet\04_Serial_to_Ethernet_Module\WIZ750SR-T1L\WIZ750SR-T1L_V100\Partlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wiznet\Project\2025\WIZSPE-T1L\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB0BE7-84B6-46D0-A926-3F1037BBA9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A682D3E-93B5-41EA-9157-517180554B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90F2FF7A-EF8D-4C65-9A41-FD6EF9D87279}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>WIZnet ARM Cortex-M0</t>
   </si>
   <si>
-    <t>10BASE-T1L PHY</t>
-  </si>
-  <si>
     <t>X-tal 12MHz,3.2x2.5 SMD, CL=20pF</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
   </si>
   <si>
     <t>W7500-LQFP64</t>
-  </si>
-  <si>
-    <t>YT8111</t>
   </si>
   <si>
     <t>SOT-143</t>
@@ -675,7 +669,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WIZ750SR-T1L</t>
+    <t>10BASE-T1L PHY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADIN1100
+YT8111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIZ750SR-T1L.PrjPcb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1420,8 +1423,8 @@
   </sheetPr>
   <dimension ref="A3:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1468,16 +1471,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1491,13 +1494,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G7" s="30"/>
     </row>
@@ -1512,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="31"/>
     </row>
@@ -1533,13 +1536,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="30"/>
     </row>
@@ -1551,16 +1554,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="30"/>
     </row>
@@ -1575,13 +1578,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" s="30"/>
     </row>
@@ -1596,13 +1599,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="30"/>
     </row>
@@ -1617,13 +1620,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="30"/>
     </row>
@@ -1638,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="30"/>
     </row>
@@ -1659,13 +1662,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="30"/>
     </row>
@@ -1677,16 +1680,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G16" s="31"/>
     </row>
@@ -1698,16 +1701,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="31"/>
     </row>
@@ -1722,16 +1725,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1745,16 +1748,16 @@
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1768,16 +1771,16 @@
         <v>4</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1791,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G21" s="30"/>
     </row>
@@ -1809,16 +1812,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G22" s="30"/>
     </row>
@@ -1830,16 +1833,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G23" s="30"/>
     </row>
@@ -1851,16 +1854,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="30"/>
     </row>
@@ -1872,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1895,16 +1898,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" s="33"/>
     </row>
@@ -1916,16 +1919,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G27" s="30"/>
     </row>
@@ -1937,16 +1940,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G28" s="30"/>
     </row>
@@ -1958,16 +1961,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G29" s="33"/>
     </row>
@@ -1979,19 +1982,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="G30" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2002,16 +2005,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G31" s="30"/>
     </row>
@@ -2023,19 +2026,19 @@
         <v>1</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2046,19 +2049,19 @@
         <v>2</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2069,19 +2072,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2092,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="30"/>
     </row>
@@ -2113,16 +2116,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G36" s="30"/>
     </row>
@@ -2134,19 +2137,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2157,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="18">
         <v>744242471</v>
@@ -2178,16 +2181,16 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G39" s="30"/>
     </row>
@@ -2202,13 +2205,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G40" s="30"/>
     </row>
@@ -2223,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G41" s="30"/>
     </row>
@@ -2244,13 +2247,13 @@
         <v>10</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G42" s="30"/>
     </row>
@@ -2265,13 +2268,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G43" s="30"/>
     </row>
@@ -2286,13 +2289,13 @@
         <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G44" s="30"/>
     </row>
@@ -2307,13 +2310,13 @@
         <v>12</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="30"/>
     </row>
@@ -2328,16 +2331,16 @@
         <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2351,16 +2354,16 @@
         <v>12</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2374,13 +2377,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G48" s="30"/>
     </row>
@@ -2395,13 +2398,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G49" s="30"/>
     </row>
@@ -2416,16 +2419,16 @@
         <v>12</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2439,13 +2442,13 @@
         <v>12</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G51" s="30"/>
     </row>
@@ -2460,13 +2463,13 @@
         <v>12</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G52" s="30"/>
     </row>
@@ -2481,13 +2484,13 @@
         <v>12</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G53" s="30"/>
     </row>
@@ -2502,13 +2505,13 @@
         <v>12</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G54" s="30"/>
     </row>
@@ -2523,13 +2526,13 @@
         <v>12</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G55" s="30"/>
     </row>
@@ -2541,16 +2544,16 @@
         <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G56" s="30"/>
     </row>
@@ -2562,16 +2565,16 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57" s="31"/>
     </row>
@@ -2586,13 +2589,13 @@
         <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G58" s="30"/>
     </row>
@@ -2604,16 +2607,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G59" s="31"/>
     </row>
@@ -2628,16 +2631,16 @@
         <v>12</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2651,13 +2654,13 @@
         <v>12</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G61" s="30"/>
     </row>
@@ -2669,16 +2672,16 @@
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" s="31"/>
     </row>
@@ -2693,13 +2696,13 @@
         <v>13</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" s="18">
         <v>1188</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G63" s="30"/>
     </row>
@@ -2714,17 +2717,17 @@
         <v>14</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G64" s="33"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>61</v>
       </c>
@@ -2732,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>98</v>
+        <v>71</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="G65" s="33"/>
     </row>
@@ -2753,16 +2756,16 @@
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G66" s="30"/>
     </row>
@@ -2774,16 +2777,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="18">
         <v>3225</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G67" s="30"/>
     </row>
@@ -2795,16 +2798,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E68" s="18">
         <v>3225</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G68" s="30"/>
     </row>
@@ -2816,14 +2819,14 @@
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G69" s="34"/>
     </row>
